--- a/tests/artifact/script/Mobile-ManageUsers.xlsx
+++ b/tests/artifact/script/Mobile-ManageUsers.xlsx
@@ -2567,7 +2567,7 @@
     <t>inviteUserName</t>
   </si>
   <si>
-    <t>UserTest[NUMBER(${num})=&gt;randomDigits(3)]</t>
+    <t>[NUMBER(${num})=&gt;randomDigits(3)]</t>
   </si>
   <si>
     <t>${inviteUserName}</t>
@@ -10258,8 +10258,8 @@
   <sheetPr/>
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/Mobile-ManageUsers.xlsx
+++ b/tests/artifact/script/Mobile-ManageUsers.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="959">
   <si>
     <t>target</t>
   </si>
@@ -2561,13 +2561,25 @@
     <t>Invite User</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>$(array|length|${userrole})</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>$(array|item|${userrole}|${counter})</t>
+  </si>
+  <si>
     <t>save Invite user name into a variable</t>
   </si>
   <si>
     <t>inviteUserName</t>
   </si>
   <si>
-    <t>[NUMBER(${num})=&gt;randomDigits(3)]</t>
+    <t>${UserName}[NUMBER(${num})=&gt;randomDigits(3)]</t>
   </si>
   <si>
     <t>${inviteUserName}</t>
@@ -2594,27 +2606,33 @@
     <t>value</t>
   </si>
   <si>
+    <t>UserRole</t>
+  </si>
+  <si>
     <t>Select the user role in select box</t>
   </si>
   <si>
     <t>${Role.selectBox}</t>
   </si>
   <si>
+    <t>${UserRole}</t>
+  </si>
+  <si>
+    <t>SkipIf(${chkvalue})</t>
+  </si>
+  <si>
+    <t>click on invite User</t>
+  </si>
+  <si>
+    <t>${click.InviteUser}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click the Check box </t>
+  </si>
+  <si>
     <t>${UserRole.Input}</t>
   </si>
   <si>
-    <t>SkipIf(${chkvalue})</t>
-  </si>
-  <si>
-    <t>click on invite User</t>
-  </si>
-  <si>
-    <t>${click.InviteUser}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click the Check box </t>
-  </si>
-  <si>
     <t>Verify the Password Label Text</t>
   </si>
   <si>
@@ -2630,7 +2648,7 @@
     <t>${Iu.password.Input}</t>
   </si>
   <si>
-    <t>${Iu.Password}</t>
+    <t>Password1@</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the Eye fill icon </t>
@@ -2660,9 +2678,6 @@
     <t>${Iu.CPassword.Input}</t>
   </si>
   <si>
-    <t>${Iu.CPassword}</t>
-  </si>
-  <si>
     <t>Verify the question label text</t>
   </si>
   <si>
@@ -2678,7 +2693,15 @@
     <t>${Iu.Question.Select.Input}</t>
   </si>
   <si>
-    <t>${Iu.Question}</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Your Lucky number ?</t>
+    </r>
   </si>
   <si>
     <t>Verify the Answer label Text</t>
@@ -2696,15 +2719,30 @@
     <t>${Iu.Answer.Input}</t>
   </si>
   <si>
-    <t>${Iu.Answer}</t>
-  </si>
-  <si>
     <t>Click on the Create Invite User button</t>
   </si>
   <si>
     <t>${Iu.Create.Button}</t>
   </si>
   <si>
+    <t>Replace the Message locator</t>
+  </si>
+  <si>
+    <t>${NewUser.successmessage}</t>
+  </si>
+  <si>
+    <t>\%</t>
+  </si>
+  <si>
+    <t>Message.Loc</t>
+  </si>
+  <si>
+    <t>Verify the Success Message</t>
+  </si>
+  <si>
+    <t>${Message.Loc}</t>
+  </si>
+  <si>
     <t>If user select the Godown in Charge in Role section</t>
   </si>
   <si>
@@ -2877,9 +2915,6 @@
   </si>
   <si>
     <t>${RemoveUser.button}</t>
-  </si>
-  <si>
-    <t>\%</t>
   </si>
   <si>
     <t>RemoveUser.Loc</t>
@@ -2925,7 +2960,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3164,6 +3199,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -10256,10 +10297,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11403,11 +11444,9 @@
       <c r="N42" s="26"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="35" t="s">
-        <v>832</v>
-      </c>
+    <row r="43" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="32" t="s">
         <v>5</v>
       </c>
@@ -11415,10 +11454,10 @@
         <v>471</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>834</v>
+        <v>777</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
@@ -11430,20 +11469,22 @@
       <c r="N43" s="26"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="44" s="4" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A44" s="22"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>835</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="33"/>
+      <c r="D44" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>783</v>
+      </c>
+      <c r="G44" s="30"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="51"/>
@@ -11453,24 +11494,22 @@
       <c r="N44" s="26"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="45" s="4" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A45" s="22"/>
-      <c r="B45" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>837</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>835</v>
-      </c>
-      <c r="G45" s="33"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="G45" s="30"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="51"/>
@@ -11480,24 +11519,25 @@
       <c r="N45" s="26"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
+    <row r="46" s="4" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
-      <c r="B46" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>839</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="33"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="G46" s="30"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="25"/>
       <c r="L46" s="26"/>
       <c r="M46" s="24"/>
@@ -11506,22 +11546,22 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="22"/>
-      <c r="B47" s="35"/>
+      <c r="B47" s="35" t="s">
+        <v>836</v>
+      </c>
       <c r="C47" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>650</v>
+        <v>471</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>840</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>841</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>842</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="51"/>
@@ -11535,15 +11575,15 @@
       <c r="A48" s="22"/>
       <c r="B48" s="35"/>
       <c r="C48" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>715</v>
+        <v>536</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>765</v>
-      </c>
-      <c r="F48" s="34"/>
+        <v>839</v>
+      </c>
+      <c r="F48" s="40"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
@@ -11557,36 +11597,34 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="22"/>
       <c r="B49" s="35" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
-      <c r="J49" s="51" t="s">
-        <v>846</v>
-      </c>
+      <c r="J49" s="51"/>
       <c r="K49" s="25"/>
       <c r="L49" s="26"/>
       <c r="M49" s="24"/>
       <c r="N49" s="26"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A50" s="22"/>
       <c r="B50" s="35" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>30</v>
@@ -11595,15 +11633,12 @@
         <v>363</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
-      <c r="J50" s="51" t="s">
-        <v>846</v>
-      </c>
       <c r="K50" s="25"/>
       <c r="L50" s="26"/>
       <c r="M50" s="24"/>
@@ -11612,23 +11647,25 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="22"/>
-      <c r="B51" s="35" t="s">
-        <v>849</v>
-      </c>
+      <c r="B51" s="35"/>
       <c r="C51" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="33"/>
+        <v>844</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>846</v>
+      </c>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="56"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="25"/>
       <c r="L51" s="26"/>
       <c r="M51" s="24"/>
@@ -11642,45 +11679,41 @@
         <v>30</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>844</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>845</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="F52" s="34"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
-      <c r="J52" s="56"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="25"/>
       <c r="L52" s="26"/>
       <c r="M52" s="24"/>
       <c r="N52" s="26"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="53" s="4" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A53" s="22"/>
-      <c r="B53" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>852</v>
-      </c>
-      <c r="G53" s="33"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="G53" s="30"/>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
-      <c r="J53" s="56"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="25"/>
       <c r="L53" s="26"/>
       <c r="M53" s="24"/>
@@ -11690,24 +11723,26 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="22"/>
       <c r="B54" s="35" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
-      <c r="J54" s="56"/>
+      <c r="J54" s="51" t="s">
+        <v>851</v>
+      </c>
       <c r="K54" s="25"/>
       <c r="L54" s="26"/>
       <c r="M54" s="24"/>
@@ -11717,22 +11752,24 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="22"/>
       <c r="B55" s="35" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
-      <c r="J55" s="56"/>
+      <c r="J55" s="51" t="s">
+        <v>851</v>
+      </c>
       <c r="K55" s="25"/>
       <c r="L55" s="26"/>
       <c r="M55" s="24"/>
@@ -11742,16 +11779,16 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="22"/>
       <c r="B56" s="35" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>253</v>
+        <v>582</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="33"/>
@@ -11766,20 +11803,18 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="22"/>
-      <c r="B57" s="35" t="s">
-        <v>860</v>
-      </c>
+      <c r="B57" s="35"/>
       <c r="C57" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>530</v>
+        <v>692</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
@@ -11794,19 +11829,19 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="22"/>
       <c r="B58" s="35" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
@@ -11821,19 +11856,19 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="22"/>
       <c r="B59" s="35" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
@@ -11848,20 +11883,18 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="22"/>
       <c r="B60" s="35" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>692</v>
+        <v>253</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>870</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>871</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F60" s="34"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
@@ -11875,20 +11908,18 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="22"/>
       <c r="B61" s="35" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>874</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="F61" s="34"/>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
@@ -11902,19 +11933,19 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="22"/>
       <c r="B62" s="35" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C62" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
@@ -11929,18 +11960,20 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="22"/>
       <c r="B63" s="35" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="F63" s="34"/>
+        <v>870</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>861</v>
+      </c>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
@@ -11951,25 +11984,27 @@
       <c r="N63" s="26"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A64" s="22" t="s">
-        <v>880</v>
-      </c>
+    <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="22"/>
       <c r="B64" s="35" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
+        <v>530</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>873</v>
+      </c>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
-      <c r="J64" s="51"/>
+      <c r="J64" s="56"/>
       <c r="K64" s="25"/>
       <c r="L64" s="26"/>
       <c r="M64" s="24"/>
@@ -11979,22 +12014,24 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="22"/>
       <c r="B65" s="35" t="s">
-        <v>827</v>
+        <v>874</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>363</v>
+        <v>692</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="F65" s="34"/>
+        <v>875</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>876</v>
+      </c>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
-      <c r="J65" s="51"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="25"/>
       <c r="L65" s="26"/>
       <c r="M65" s="24"/>
@@ -12004,24 +12041,24 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="22"/>
       <c r="B66" s="35" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>837</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>835</v>
+        <v>878</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>879</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="56"/>
       <c r="K66" s="25"/>
       <c r="L66" s="26"/>
       <c r="M66" s="24"/>
@@ -12031,22 +12068,24 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="22"/>
       <c r="B67" s="35" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="F67" s="34"/>
+        <v>881</v>
+      </c>
+      <c r="F67" s="34">
+        <v>7</v>
+      </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="33"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="25"/>
       <c r="L67" s="26"/>
       <c r="M67" s="24"/>
@@ -12056,22 +12095,22 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="22"/>
       <c r="B68" s="35" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="33"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="56"/>
       <c r="K68" s="25"/>
       <c r="L68" s="26"/>
       <c r="M68" s="24"/>
@@ -12081,24 +12120,28 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="22"/>
       <c r="B69" s="35" t="s">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>692</v>
+        <v>486</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+        <v>886</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>887</v>
+      </c>
       <c r="I69" s="33"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="25"/>
       <c r="L69" s="26"/>
       <c r="M69" s="24"/>
@@ -12108,24 +12151,22 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="22"/>
       <c r="B70" s="35" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>888</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="F70" s="34"/>
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
       <c r="I70" s="33"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="56"/>
       <c r="K70" s="25"/>
       <c r="L70" s="26"/>
       <c r="M70" s="24"/>
@@ -12135,44 +12176,46 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="22"/>
       <c r="B71" s="35" t="s">
-        <v>889</v>
+        <v>801</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>483</v>
+        <v>302</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>890</v>
-      </c>
-      <c r="G71" s="10"/>
+        <v>777</v>
+      </c>
+      <c r="F71" s="34">
+        <v>1</v>
+      </c>
+      <c r="G71" s="33"/>
       <c r="H71" s="33"/>
       <c r="I71" s="33"/>
-      <c r="J71" s="51"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="25"/>
       <c r="L71" s="26"/>
       <c r="M71" s="24"/>
       <c r="N71" s="26"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="22"/>
-      <c r="B72" s="35"/>
+    <row r="72" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
+      <c r="A72" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>891</v>
+      </c>
       <c r="C72" s="32" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>775</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E72" s="33"/>
       <c r="F72" s="34"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="33"/>
       <c r="H72" s="33"/>
       <c r="I72" s="33"/>
       <c r="J72" s="51"/>
@@ -12185,20 +12228,18 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="22"/>
       <c r="B73" s="35" t="s">
-        <v>891</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>778</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="F73" s="34"/>
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="33"/>
@@ -12212,19 +12253,19 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="22"/>
       <c r="B74" s="35" t="s">
-        <v>892</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>783</v>
+        <v>840</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>839</v>
       </c>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
@@ -12239,20 +12280,18 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="22"/>
       <c r="B75" s="35" t="s">
-        <v>784</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>775</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="F75" s="34"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
       <c r="I75" s="33"/>
@@ -12266,20 +12305,18 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="22"/>
       <c r="B76" s="35" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>894</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>895</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="F76" s="34"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
       <c r="I76" s="33"/>
@@ -12293,21 +12330,21 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="22"/>
       <c r="B77" s="35" t="s">
-        <v>896</v>
+        <v>848</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>897</v>
+        <v>692</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>849</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>898</v>
-      </c>
-      <c r="G77" s="30"/>
+        <v>895</v>
+      </c>
+      <c r="G77" s="33"/>
       <c r="H77" s="33"/>
       <c r="I77" s="33"/>
       <c r="J77" s="51"/>
@@ -12320,21 +12357,21 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="22"/>
       <c r="B78" s="35" t="s">
-        <v>899</v>
-      </c>
-      <c r="C78" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>900</v>
+        <v>530</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>897</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>901</v>
-      </c>
-      <c r="G78" s="30"/>
+        <v>898</v>
+      </c>
+      <c r="G78" s="33"/>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="51"/>
@@ -12347,21 +12384,21 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="22"/>
       <c r="B79" s="35" t="s">
-        <v>902</v>
-      </c>
-      <c r="C79" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="C79" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>903</v>
+        <v>483</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>772</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="G79" s="30"/>
+        <v>900</v>
+      </c>
+      <c r="G79" s="10"/>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
       <c r="J79" s="51"/>
@@ -12373,22 +12410,18 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="22"/>
-      <c r="B80" s="35" t="s">
-        <v>905</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>895</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>906</v>
-      </c>
-      <c r="G80" s="30"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F80" s="34"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
       <c r="J80" s="51"/>
@@ -12401,19 +12434,19 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="22"/>
       <c r="B81" s="35" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>898</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>908</v>
+        <v>471</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>778</v>
       </c>
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
@@ -12428,19 +12461,19 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="22"/>
       <c r="B82" s="35" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>901</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>910</v>
+        <v>465</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>783</v>
       </c>
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
@@ -12455,19 +12488,19 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="22"/>
       <c r="B83" s="35" t="s">
-        <v>911</v>
+        <v>784</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>912</v>
+        <v>5</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>775</v>
       </c>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
@@ -12482,19 +12515,19 @@
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="22"/>
       <c r="B84" s="35" t="s">
-        <v>801</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>802</v>
+        <v>903</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>905</v>
       </c>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
@@ -12508,20 +12541,22 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="22"/>
-      <c r="B85" s="23" t="s">
-        <v>913</v>
+      <c r="B85" s="35" t="s">
+        <v>906</v>
       </c>
       <c r="C85" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+        <v>493</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="G85" s="30"/>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
       <c r="J85" s="51"/>
@@ -12533,20 +12568,22 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="22"/>
-      <c r="B86" s="23" t="s">
-        <v>915</v>
-      </c>
-      <c r="C86" s="32" t="s">
+      <c r="B86" s="35" t="s">
+        <v>909</v>
+      </c>
+      <c r="C86" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>916</v>
-      </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
+        <v>493</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>910</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="G86" s="30"/>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
       <c r="J86" s="51"/>
@@ -12558,20 +12595,22 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="22"/>
-      <c r="B87" s="23" t="s">
-        <v>917</v>
-      </c>
-      <c r="C87" s="32" t="s">
+      <c r="B87" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>918</v>
-      </c>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+        <v>493</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="G87" s="30"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
       <c r="J87" s="51"/>
@@ -12583,22 +12622,22 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="22"/>
-      <c r="B88" s="23" t="s">
-        <v>919</v>
-      </c>
-      <c r="C88" s="32" t="s">
+      <c r="B88" s="35" t="s">
+        <v>915</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>920</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="G88" s="33"/>
+      <c r="D88" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>905</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="G88" s="30"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
       <c r="J88" s="51"/>
@@ -12608,24 +12647,22 @@
       <c r="N88" s="26"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="28" spans="1:15">
-      <c r="A89" s="22" t="s">
-        <v>922</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>923</v>
-      </c>
-      <c r="C89" s="32" t="s">
+    <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="22"/>
+      <c r="B89" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="C89" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>924</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>925</v>
+      <c r="D89" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
@@ -12639,20 +12676,20 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="22"/>
-      <c r="B90" s="23" t="s">
-        <v>926</v>
+      <c r="B90" s="35" t="s">
+        <v>919</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>778</v>
+        <v>530</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>920</v>
       </c>
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
@@ -12666,20 +12703,20 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="22"/>
-      <c r="B91" s="23" t="s">
-        <v>927</v>
+      <c r="B91" s="35" t="s">
+        <v>921</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>928</v>
-      </c>
-      <c r="F91" s="37" t="s">
-        <v>783</v>
+        <v>530</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>922</v>
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
@@ -12693,20 +12730,20 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="22"/>
-      <c r="B92" s="23" t="s">
-        <v>929</v>
+      <c r="B92" s="35" t="s">
+        <v>801</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>930</v>
+        <v>777</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>802</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
@@ -12721,26 +12758,20 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="22"/>
       <c r="B93" s="23" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>486</v>
+        <v>363</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>932</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="H93" s="33" t="s">
-        <v>933</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="33"/>
       <c r="J93" s="51"/>
       <c r="K93" s="25"/>
@@ -12752,96 +12783,98 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="22"/>
       <c r="B94" s="23" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="25"/>
       <c r="L94" s="26"/>
       <c r="M94" s="24"/>
       <c r="N94" s="26"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="22"/>
       <c r="B95" s="23" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>486</v>
+        <v>715</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>938</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="H95" s="33" t="s">
-        <v>939</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="33"/>
-      <c r="J95" s="51" t="s">
-        <v>940</v>
-      </c>
+      <c r="J95" s="51"/>
       <c r="K95" s="25"/>
       <c r="L95" s="26"/>
       <c r="M95" s="24"/>
       <c r="N95" s="26"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" ht="29" spans="2:10">
-      <c r="B96" s="8" t="s">
-        <v>941</v>
+    <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23" t="s">
+        <v>929</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="J96" s="51" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="22"/>
+        <v>319</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>930</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="25"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="28" spans="1:15">
+      <c r="A97" s="22" t="s">
+        <v>932</v>
+      </c>
       <c r="B97" s="23" t="s">
-        <v>801</v>
+        <v>933</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>302</v>
+        <v>483</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>777</v>
+        <v>934</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>802</v>
+        <v>935</v>
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
@@ -12856,18 +12889,20 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="22"/>
       <c r="B98" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="F98" s="33"/>
+        <v>936</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="F98" s="37" t="s">
+        <v>778</v>
+      </c>
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -12881,26 +12916,24 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="22"/>
       <c r="B99" s="23" t="s">
-        <v>945</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>946</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>761</v>
+        <v>937</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>783</v>
       </c>
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
-      <c r="J99" s="51" t="s">
-        <v>940</v>
-      </c>
+      <c r="J99" s="51"/>
       <c r="K99" s="25"/>
       <c r="L99" s="26"/>
       <c r="M99" s="24"/>
@@ -12910,18 +12943,20 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="22"/>
       <c r="B100" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>948</v>
-      </c>
-      <c r="F100" s="33"/>
+        <v>939</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>940</v>
+      </c>
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -12933,16 +12968,28 @@
       <c r="O100" s="25"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="22" t="s">
-        <v>949</v>
-      </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="H101" s="33" t="s">
+        <v>943</v>
+      </c>
       <c r="I101" s="33"/>
       <c r="J101" s="51"/>
       <c r="K101" s="25"/>
@@ -12953,62 +13000,98 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="B102" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>945</v>
+      </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
-      <c r="J102" s="51"/>
       <c r="K102" s="25"/>
       <c r="L102" s="26"/>
       <c r="M102" s="24"/>
       <c r="N102" s="26"/>
       <c r="O102" s="25"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="103" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
+      <c r="B103" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="H103" s="33" t="s">
+        <v>948</v>
+      </c>
       <c r="I103" s="33"/>
-      <c r="J103" s="51"/>
+      <c r="J103" s="51" t="s">
+        <v>949</v>
+      </c>
       <c r="K103" s="25"/>
       <c r="L103" s="26"/>
       <c r="M103" s="24"/>
       <c r="N103" s="26"/>
       <c r="O103" s="25"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="25"/>
+    <row r="104" ht="29" spans="2:10">
+      <c r="B104" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J104" s="51" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
+      <c r="B105" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -13021,10 +13104,18 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
+      <c r="B106" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>953</v>
+      </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
@@ -13038,15 +13129,27 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
+      <c r="B107" s="23" t="s">
+        <v>954</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>761</v>
+      </c>
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="51"/>
+      <c r="J107" s="51" t="s">
+        <v>949</v>
+      </c>
       <c r="K107" s="25"/>
       <c r="L107" s="26"/>
       <c r="M107" s="24"/>
@@ -13055,10 +13158,18 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="B108" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>957</v>
+      </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
@@ -13071,7 +13182,9 @@
       <c r="O108" s="25"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="22"/>
+      <c r="A109" s="22" t="s">
+        <v>958</v>
+      </c>
       <c r="B109" s="23"/>
       <c r="C109" s="32"/>
       <c r="D109" s="33"/>
@@ -14141,6 +14254,142 @@
       <c r="N171" s="26"/>
       <c r="O171" s="25"/>
     </row>
+    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="25"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="51"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="25"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="51"/>
+      <c r="K174" s="25"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="26"/>
+      <c r="O174" s="25"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="51"/>
+      <c r="K175" s="25"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="26"/>
+      <c r="O175" s="25"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="51"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="26"/>
+      <c r="O176" s="25"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="51"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="24"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="25"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="51"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="24"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="25"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="51"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="26"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="26"/>
+      <c r="O179" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -14149,54 +14398,98 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N8:N78">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N1 N3:N4 N8:N43 N47:N52 N54:N86">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N79:N95 N97:N171">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N87:N103 N105:N179">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N87,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N87,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N87,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C12 C13 C14 C15 C16 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C43 C44 C45 C46 C47 C48 C51 C52 C55 C56 C57 C61 C65 C66 C67 C68 C69 C70 C71 C72 C73 C76 C77 C78 C79 C80 C81 C82 C83 C84 C87 C90 C93 C94 C95 C96 C10:C11 C17:C18 C29:C30 C41:C42 C49:C50 C53:C54 C58:C60 C62:C64 C74:C75 C85:C86 C88:C89 C91:C92 C97:C171">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C12 C13 C14 C15 C16 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C56 C57 C60 C61 C62 C66 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C84 C85 C86 C87 C88 C89 C90 C91 C92 C95 C98 C101 C102 C103 C104 C10:C11 C17:C18 C29:C30 C41:C42 C54:C55 C58:C59 C63:C65 C67:C68 C82:C83 C93:C94 C96:C97 C99:C100 C105:C179">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D12 D13 D14 D15 D16 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D43 D44 D45 D46 D47 D48 D51 D52 D55 D56 D57 D61 D65 D66 D67 D68 D69 D70 D71 D72 D73 D76 D77 D78 D79 D80 D81 D82 D83 D84 D87 D88 D89 D90 D93 D94 D95 D96 D99 D100 D10:D11 D17:D18 D29:D30 D41:D42 D49:D50 D53:D54 D58:D60 D62:D64 D74:D75 D85:D86 D91:D92 D97:D98 D101:D171">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D12 D13 D14 D15 D16 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D56 D57 D60 D61 D62 D66 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D84 D85 D86 D87 D88 D89 D90 D91 D92 D95 D96 D97 D98 D101 D102 D103 D104 D107 D108 D10:D11 D17:D18 D29:D30 D41:D42 D54:D55 D58:D59 D63:D65 D67:D68 D82:D83 D93:D94 D99:D100 D105:D106 D109:D179">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-ManageUsers.xlsx
+++ b/tests/artifact/script/Mobile-ManageUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,7 +57,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3232,10 +3245,10 @@
     <t>${data.path}\UI-ManageUsers\${xlsxFileName}.xlsx</t>
   </si>
   <si>
-    <t>Manage Users List</t>
-  </si>
-  <si>
-    <t>A1:F100</t>
+    <t>List of Users</t>
+  </si>
+  <si>
+    <t>A1:D100</t>
   </si>
   <si>
     <t>Verify the Godown name available in the file</t>
@@ -3253,7 +3266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -10669,8 +10682,8 @@
   <sheetPr/>
   <dimension ref="A1:O320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A194" sqref="$A194:$XFD194"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C255" workbookViewId="0">
+      <selection activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -17785,7 +17798,7 @@
         <v>1056</v>
       </c>
       <c r="F266" s="67" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
       <c r="G266" s="68"/>
       <c r="H266" s="33"/>
